--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3585.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3585.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.97378826776609</v>
+        <v>1.874076724052429</v>
       </c>
       <c r="B1">
-        <v>1.60461801713518</v>
+        <v>5.519608974456787</v>
       </c>
       <c r="C1">
-        <v>4.142847015756003</v>
+        <v>2.584070205688477</v>
       </c>
       <c r="D1">
-        <v>4.026525117153772</v>
+        <v>1.638672471046448</v>
       </c>
       <c r="E1">
-        <v>1.367283149885591</v>
+        <v>1.322680592536926</v>
       </c>
     </row>
   </sheetData>
